--- a/_db/excel_files/E.E. QUITO.xlsx
+++ b/_db/excel_files/E.E. QUITO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rsanchez\Documentos\GDT - 2019\Monitoreo de disponibilidad\Archivos fuente\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos\Nodos_(5)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Roberto Sánchez</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roberto Sánchez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Las columnas: 
+utr, utr_nombre, utr_tipo, entidad_nombre, entidad_tipo, activado.
+Son obligatorias, cualquier cosa adicional a estas no serán tomadas en cuenta.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="372">
-  <si>
-    <t>nombre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="476">
   <si>
     <t>activado</t>
   </si>
@@ -1111,38 +1145,353 @@
     <t>TE # ME</t>
   </si>
   <si>
-    <t>tipo</t>
+    <t>utr_nombre</t>
+  </si>
+  <si>
+    <t>utr_tipo</t>
+  </si>
+  <si>
+    <t>entidad_nombre</t>
+  </si>
+  <si>
+    <t>entidad_tipo</t>
+  </si>
+  <si>
+    <t>CALERA TBOX</t>
+  </si>
+  <si>
+    <t>GUALBER HERNANDEZ DNP 3.0</t>
+  </si>
+  <si>
+    <t>GUANGOPOLO DNP 3.0</t>
+  </si>
+  <si>
+    <t>GUANGOPOLO II DNP 3.0</t>
+  </si>
+  <si>
+    <t>NAYON DNP 3.0</t>
+  </si>
+  <si>
+    <t>PASOCHOA DNP 3.0</t>
   </si>
   <si>
     <t>Central</t>
   </si>
   <si>
-    <t>CALERA</t>
-  </si>
-  <si>
-    <t>Gualberto Hernandez</t>
-  </si>
-  <si>
-    <t>Guangopolo H</t>
-  </si>
-  <si>
-    <t>Guangopolo T</t>
-  </si>
-  <si>
-    <t>Nayón</t>
-  </si>
-  <si>
-    <t>Pasochoa</t>
-  </si>
-  <si>
-    <t>Cumbaya</t>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>E.E.Quito</t>
+  </si>
+  <si>
+    <t>Subestación</t>
+  </si>
+  <si>
+    <t>C_CHILLO</t>
+  </si>
+  <si>
+    <t>CHILLOS TBOX</t>
+  </si>
+  <si>
+    <t>C_CUMBAY</t>
+  </si>
+  <si>
+    <t>C.CUMBAYA DNP 3.0</t>
+  </si>
+  <si>
+    <t>C_HCARCE</t>
+  </si>
+  <si>
+    <t>HIDRO. CARCELEN TBOX</t>
+  </si>
+  <si>
+    <t>PAPALLAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPALLACTA DNP 3.0 </t>
+  </si>
+  <si>
+    <t>C_CHILLO_2.2GEN_Q.G-BRU_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CHILLO_2.2GEN_P.G-BRU_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CHILLO_2.2GEN_ALA.COMUNI_DNP.SQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46BAR_U4_V.BARRA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U4_HI_P.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U4_HI_Q.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U1_HI_Q.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46BAR_U1_V.BARRA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U3_HI_P.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U1_HI_P.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY_NIVELAGUAENRESERVORI_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U3_HI_Q.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U2_HI_Q.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46BAR_U2_V.BARRA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46U2_HI_P.G.BRUTA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY46BAR_U3_V.BARRA_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U2_HI_ALA.FAL.MECANI._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U2_HI_ALA.FAL.ELECTR._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U1_HI_ALA.FAL.ELECTR._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U1_HI_ALA.FAL.ELE+MEC_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U4_HI_ALA.FAL.ELECTR._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U3_SC.BAR-H33_DNP.SQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U4_HI_ALA.FAL.MECANI._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U4_HI_ALA.PAR.MA_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U4_HI_IT.GEN52-4_DNP.EQ</t>
+  </si>
+  <si>
+    <t>RTU_69_24RTUFAILED.SQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U3_HI_ALA.PAR.MA_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U4_SC.BAR-H43_DNP.SQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U3_HI_IT.GEN52-3_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U3_HI_ALA.FAL.ELE+MEC_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U1_HI_ALA.PAR.MA_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U3_HI_ALA.FAL.ELECTR._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U3_HI_ALA.FAL.MECANI._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U1_HI_IT.GEN52-1_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U1_SC.BAR-H13_DNP.SQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U2_HI_ALA.PAR.MA_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U2_HI_IT.GEN52-2_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U2_HI_ALA.FAL.ELE+MEC_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U1_HI_ALA.FAL.MECANI._DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U2_SC.BAR-H23_DNP.SQ</t>
+  </si>
+  <si>
+    <t>C_CUMBAY4.16U4_HI_ALA.FAL.ELE+MEC_DNP.EQ</t>
+  </si>
+  <si>
+    <t>C_HCARCE_0.4GEN_P.G-NET_DNP.AQ</t>
+  </si>
+  <si>
+    <t>C_HCARCE_0.4GEN_Q.G-NET_DNP.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_I.LINEA-C_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_I.TRAFO-B_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_Q.TRA23_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_LTC.23_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_I.LINEA-B_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_P.TRA23_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_P.LINEA_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_Q.CARGA_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_P.CARGA_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_Q.LINEA_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_P.LINEA_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_V.BARRA_TRAF_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_I.LINEA-A_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138BAR_BAR_V.BARRA_LINE_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_Q.LINEA_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_I.TRAFO-C_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_I.TRAFO-A_ICC.AQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_SC.BAR189-11_ICC.SQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_SC.TIE189-E11_ICC.SQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_ALA.SOBREC.F_NT_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_IT.TRA152-1_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_ALA.SOBRECO.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_ALA.SOBRECO.SEC_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_ALA.BUCHHOL_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_ALA.SOBREP._ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_AL.SOBR.ACE_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_IT.LIN152-A_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_IT.ALI152-B_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_SC.TIE89-E11_ICC.SQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_ALA.SOBRECO.SEC_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_ALA.SOBRECO.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_ALA.PRO.DIF_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_ALA.SOBRET._ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_ALA.FAL.INTERRU_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_ALA.FAL.INTERRU_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_ALA.FAL.INTERRU_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_B_N_ALA.SOBRECO.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_ALA.SBC.DIR.F_N_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_ALA.SBC.DIR.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23TR1_ALA.SOBREC.F_NT_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC_TR1-138-23-_ALA.TRA.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_ALA.SOBREC.F_NT_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_ALA.SOBRECO.SEC_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_ALA.SBC.DIR.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_IT.LIN52-1_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_ALA.SOBRECO.PRI_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_ALA.SBC.DIR.F_N_ICC.EQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC138EPMAPS_SC.LIN89-11_ICC.SQ</t>
+  </si>
+  <si>
+    <t>PAPALLAC23ALI_A_N_ALA.SOBREC.F_NT_ICC.EQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,6 +1506,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1502,32 +1864,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,16 +2227,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,16 +2244,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,16 +2261,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,16 +2278,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,162 +2295,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E350"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,16 +2312,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,16 +2329,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,16 +2346,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,16 +2363,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,16 +2380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,16 +2397,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,16 +2414,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,16 +2431,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,16 +2448,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,16 +2465,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,16 +2482,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,16 +2499,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,16 +2516,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,16 +2533,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,16 +2550,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,16 +2567,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,16 +2584,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,16 +2601,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,16 +2618,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,16 +2635,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,16 +2652,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,16 +2669,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,16 +2686,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,16 +2703,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,16 +2720,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,16 +2737,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,16 +2754,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,16 +2771,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,16 +2788,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,16 +2805,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,16 +2822,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,16 +2839,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,16 +2856,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,16 +2873,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,16 +2890,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,16 +2907,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,16 +2924,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,16 +2941,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,16 +2958,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,16 +2975,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,16 +2992,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,16 +3009,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,16 +3026,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,16 +3043,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,16 +3060,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,16 +3077,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,16 +3094,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,16 +3111,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,16 +3128,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,16 +3145,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,16 +3162,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,16 +3179,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,16 +3196,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,16 +3213,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,16 +3230,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,16 +3247,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,16 +3264,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,16 +3281,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,16 +3298,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,16 +3315,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,16 +3332,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,16 +3349,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2854,16 +3366,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,16 +3383,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,16 +3400,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,16 +3417,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,16 +3434,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,16 +3451,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,16 +3468,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,16 +3485,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,16 +3502,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,16 +3519,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,16 +3536,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,16 +3553,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,16 +3570,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,16 +3587,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,16 +3604,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,16 +3621,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,16 +3638,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,16 +3655,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,16 +3672,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,16 +3689,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,16 +3706,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,16 +3723,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,16 +3740,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,16 +3757,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,16 +3774,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3279,16 +3791,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3296,16 +3808,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,16 +3825,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,16 +3842,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,16 +3859,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3364,16 +3876,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,16 +3893,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,16 +3910,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,16 +3927,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,16 +3944,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,16 +3961,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3466,16 +3978,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,16 +3995,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3500,16 +4012,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3517,16 +4029,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,16 +4046,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,16 +4063,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,16 +4080,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,16 +4097,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,16 +4114,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,16 +4131,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,16 +4148,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3653,16 +4165,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,16 +4182,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,16 +4199,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,16 +4216,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,16 +4233,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,16 +4250,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,16 +4267,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,16 +4284,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,16 +4301,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3806,16 +4318,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,16 +4335,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,16 +4352,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,16 +4369,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,16 +4386,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,16 +4403,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,16 +4420,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,16 +4437,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3942,16 +4454,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,16 +4471,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,16 +4488,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3993,16 +4505,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,16 +4522,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,16 +4539,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,16 +4556,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4061,16 +4573,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,16 +4590,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4095,16 +4607,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4112,16 +4624,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4129,16 +4641,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4146,16 +4658,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,16 +4675,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4180,16 +4692,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4197,16 +4709,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4214,16 +4726,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4231,16 +4743,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4248,16 +4760,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,16 +4777,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4282,16 +4794,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4299,16 +4811,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,16 +4828,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,16 +4845,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,16 +4862,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,16 +4879,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,16 +4896,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4401,16 +4913,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4418,16 +4930,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4435,16 +4947,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4452,16 +4964,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,16 +4981,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,16 +4998,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,16 +5015,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4520,16 +5032,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,16 +5049,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4554,16 +5066,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D171" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,16 +5083,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,16 +5100,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D173" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4605,16 +5117,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D174" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,16 +5134,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,16 +5151,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D176" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,16 +5168,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,16 +5185,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D178" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,16 +5202,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,16 +5219,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D180" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4724,16 +5236,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,16 +5253,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D182" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,16 +5270,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D183" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,16 +5287,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4792,16 +5304,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D185" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4809,16 +5321,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4826,16 +5338,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D187" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4843,16 +5355,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D188" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,16 +5372,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4877,16 +5389,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4894,16 +5406,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,16 +5423,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D192" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4928,16 +5440,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D193" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4945,16 +5457,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D194" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4962,16 +5474,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D195" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,16 +5491,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4996,16 +5508,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D197" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5013,16 +5525,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D198" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5030,16 +5542,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D199" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5047,16 +5559,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D200" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5064,16 +5576,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,16 +5593,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D202" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5098,16 +5610,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D203" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5115,16 +5627,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D204" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,16 +5644,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D205" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,16 +5661,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D206" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5166,16 +5678,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D207" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,16 +5695,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5200,16 +5712,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D209" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,16 +5729,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D210" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5234,16 +5746,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D211" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,16 +5763,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D212" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5268,16 +5780,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D213" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5285,16 +5797,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D214" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5302,16 +5814,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D215" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,16 +5831,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D216" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5336,16 +5848,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D217" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,16 +5865,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5370,16 +5882,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D219" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5387,16 +5899,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D220" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5404,16 +5916,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D221" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5421,16 +5933,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D222" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,16 +5950,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5455,16 +5967,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D224" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5472,16 +5984,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D225" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5489,16 +6001,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D226" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5506,16 +6018,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D227" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5523,16 +6035,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D228" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5540,16 +6052,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D229" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5557,16 +6069,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D230" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5574,16 +6086,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D231" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5591,16 +6103,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D232" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5608,16 +6120,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D233" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5625,16 +6137,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D234" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5642,16 +6154,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D235" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5659,16 +6171,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D236" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5676,16 +6188,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D237" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5693,16 +6205,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D238" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,16 +6222,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D239" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5727,16 +6239,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D240" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5744,16 +6256,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D241" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,16 +6273,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D242" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5778,16 +6290,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D243" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5795,16 +6307,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D244" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5812,16 +6324,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D245" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5829,16 +6341,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D246" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5846,16 +6358,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D247" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5863,16 +6375,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D248" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5880,16 +6392,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D249" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,16 +6409,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D250" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5914,16 +6426,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D251" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,16 +6443,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D252" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5948,16 +6460,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -5965,16 +6477,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D254" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5982,16 +6494,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D255" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5999,16 +6511,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D256" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,16 +6528,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D257" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6033,16 +6545,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D258" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6050,16 +6562,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D259" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6067,16 +6579,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C260" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D260" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6084,16 +6596,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D261" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6101,16 +6613,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D262" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6118,16 +6630,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D263" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6135,16 +6647,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D264" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6152,16 +6664,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D265" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,16 +6681,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D266" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6186,16 +6698,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C267" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D267" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6203,16 +6715,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D268" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6220,16 +6732,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D269" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6237,16 +6749,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D270" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6254,16 +6766,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D271" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6271,16 +6783,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D272" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6288,16 +6800,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D273" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6305,16 +6817,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D274" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6322,16 +6834,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D275" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,16 +6851,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D276" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6356,16 +6868,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D277" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6373,16 +6885,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D278" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6390,16 +6902,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D279" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6407,16 +6919,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D280" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6424,16 +6936,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D281" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6441,16 +6953,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D282" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E282" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6458,16 +6970,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D283" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6475,16 +6987,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D284" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E284" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6492,16 +7004,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D285" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6509,16 +7021,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D286" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6526,16 +7038,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D287" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,16 +7055,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D288" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E288" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6560,16 +7072,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D289" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6577,16 +7089,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D290" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6594,16 +7106,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D291" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6611,16 +7123,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6628,16 +7140,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D293" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E293" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -6645,16 +7157,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D294" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6662,16 +7174,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D295" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6679,16 +7191,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D296" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E296" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6696,16 +7208,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D297" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6713,16 +7225,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C298" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D298" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E298" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6730,16 +7242,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D299" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6747,16 +7259,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D300" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E300" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6764,16 +7276,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D301" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E301" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -6781,16 +7293,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D302" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E302" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -6798,16 +7310,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E303" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6815,16 +7327,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D304" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E304" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6832,16 +7344,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D305" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E305" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6849,16 +7361,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D306" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -6866,16 +7378,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D307" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -6883,16 +7395,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C308" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D308" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -6900,16 +7412,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C309" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D309" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -6917,16 +7429,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D310" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E310" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6934,16 +7446,16 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D311" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6951,16 +7463,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E312" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6968,16 +7480,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D313" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E313" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -6985,16 +7497,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D314" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7002,16 +7514,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D315" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E315" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7019,16 +7531,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D316" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E316" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7036,16 +7548,16 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D317" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7053,16 +7565,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D318" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E318" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7070,16 +7582,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D319" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7087,16 +7599,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D320" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E320" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7104,16 +7616,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D321" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7121,16 +7633,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D322" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E322" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7138,16 +7650,16 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D323" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7155,16 +7667,16 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D324" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7172,16 +7684,16 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D325" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E325" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7189,16 +7701,16 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D326" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7206,16 +7718,16 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C327" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D327" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E327" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7223,16 +7735,16 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D328" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7240,16 +7752,16 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C329" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D329" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7257,16 +7769,16 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D330" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E330" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7274,16 +7786,16 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D331" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7291,16 +7803,16 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D332" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7308,16 +7820,16 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C333" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D333" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7325,16 +7837,16 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D334" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7342,16 +7854,16 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D335" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E335" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7359,16 +7871,16 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D336" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E336" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7376,16 +7888,16 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D337" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E337" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7393,16 +7905,16 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D338" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E338" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7410,16 +7922,16 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C339" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D339" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7427,16 +7939,16 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C340" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D340" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E340" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7444,16 +7956,16 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C341" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D341" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E341" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7461,16 +7973,16 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C342" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D342" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7478,16 +7990,16 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D343" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E343" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7495,16 +8007,16 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C344" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D344" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E344" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7512,16 +8024,16 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D345" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7529,16 +8041,16 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D346" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7546,16 +8058,16 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D347" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E347" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7563,16 +8075,16 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D348" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E348" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7580,16 +8092,16 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D349" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E349" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7597,16 +8109,1580 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D350" t="s">
+        <v>361</v>
+      </c>
+      <c r="E350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>376</v>
+      </c>
+      <c r="C351" t="s">
+        <v>384</v>
+      </c>
+      <c r="D351" t="s">
+        <v>361</v>
+      </c>
+      <c r="E351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>376</v>
+      </c>
+      <c r="C352" t="s">
+        <v>385</v>
+      </c>
+      <c r="D352" t="s">
+        <v>361</v>
+      </c>
+      <c r="E352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>376</v>
+      </c>
+      <c r="C353" t="s">
+        <v>386</v>
+      </c>
+      <c r="D353" t="s">
+        <v>361</v>
+      </c>
+      <c r="E353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>378</v>
+      </c>
+      <c r="C354" t="s">
+        <v>387</v>
+      </c>
+      <c r="D354" t="s">
+        <v>361</v>
+      </c>
+      <c r="E354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>378</v>
+      </c>
+      <c r="C355" t="s">
+        <v>388</v>
+      </c>
+      <c r="D355" t="s">
+        <v>361</v>
+      </c>
+      <c r="E355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>378</v>
+      </c>
+      <c r="C356" t="s">
+        <v>389</v>
+      </c>
+      <c r="D356" t="s">
+        <v>361</v>
+      </c>
+      <c r="E356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>378</v>
+      </c>
+      <c r="C357" t="s">
+        <v>390</v>
+      </c>
+      <c r="D357" t="s">
+        <v>361</v>
+      </c>
+      <c r="E357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>378</v>
+      </c>
+      <c r="C358" t="s">
+        <v>391</v>
+      </c>
+      <c r="D358" t="s">
+        <v>361</v>
+      </c>
+      <c r="E358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>378</v>
+      </c>
+      <c r="C359" t="s">
+        <v>392</v>
+      </c>
+      <c r="D359" t="s">
+        <v>361</v>
+      </c>
+      <c r="E359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>378</v>
+      </c>
+      <c r="C360" t="s">
+        <v>393</v>
+      </c>
+      <c r="D360" t="s">
+        <v>361</v>
+      </c>
+      <c r="E360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>378</v>
+      </c>
+      <c r="C361" t="s">
+        <v>394</v>
+      </c>
+      <c r="D361" t="s">
+        <v>361</v>
+      </c>
+      <c r="E361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>378</v>
+      </c>
+      <c r="C362" t="s">
+        <v>395</v>
+      </c>
+      <c r="D362" t="s">
+        <v>361</v>
+      </c>
+      <c r="E362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>378</v>
+      </c>
+      <c r="C363" t="s">
+        <v>396</v>
+      </c>
+      <c r="D363" t="s">
+        <v>361</v>
+      </c>
+      <c r="E363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="E350" t="s">
-        <v>9</v>
+      <c r="B364" t="s">
+        <v>378</v>
+      </c>
+      <c r="C364" t="s">
+        <v>397</v>
+      </c>
+      <c r="D364" t="s">
+        <v>361</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>378</v>
+      </c>
+      <c r="C365" t="s">
+        <v>398</v>
+      </c>
+      <c r="D365" t="s">
+        <v>361</v>
+      </c>
+      <c r="E365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>378</v>
+      </c>
+      <c r="C366" t="s">
+        <v>399</v>
+      </c>
+      <c r="D366" t="s">
+        <v>361</v>
+      </c>
+      <c r="E366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>378</v>
+      </c>
+      <c r="C367" t="s">
+        <v>400</v>
+      </c>
+      <c r="D367" t="s">
+        <v>361</v>
+      </c>
+      <c r="E367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>378</v>
+      </c>
+      <c r="C368" t="s">
+        <v>401</v>
+      </c>
+      <c r="D368" t="s">
+        <v>361</v>
+      </c>
+      <c r="E368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>378</v>
+      </c>
+      <c r="C369" t="s">
+        <v>402</v>
+      </c>
+      <c r="D369" t="s">
+        <v>361</v>
+      </c>
+      <c r="E369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>378</v>
+      </c>
+      <c r="C370" t="s">
+        <v>403</v>
+      </c>
+      <c r="D370" t="s">
+        <v>361</v>
+      </c>
+      <c r="E370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>378</v>
+      </c>
+      <c r="C371" t="s">
+        <v>404</v>
+      </c>
+      <c r="D371" t="s">
+        <v>361</v>
+      </c>
+      <c r="E371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>378</v>
+      </c>
+      <c r="C372" t="s">
+        <v>405</v>
+      </c>
+      <c r="D372" t="s">
+        <v>361</v>
+      </c>
+      <c r="E372" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>378</v>
+      </c>
+      <c r="C373" t="s">
+        <v>406</v>
+      </c>
+      <c r="D373" t="s">
+        <v>361</v>
+      </c>
+      <c r="E373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>378</v>
+      </c>
+      <c r="C374" t="s">
+        <v>407</v>
+      </c>
+      <c r="D374" t="s">
+        <v>361</v>
+      </c>
+      <c r="E374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>378</v>
+      </c>
+      <c r="C375" t="s">
+        <v>408</v>
+      </c>
+      <c r="D375" t="s">
+        <v>361</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>378</v>
+      </c>
+      <c r="C376" t="s">
+        <v>409</v>
+      </c>
+      <c r="D376" t="s">
+        <v>361</v>
+      </c>
+      <c r="E376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>378</v>
+      </c>
+      <c r="C377" t="s">
+        <v>410</v>
+      </c>
+      <c r="D377" t="s">
+        <v>361</v>
+      </c>
+      <c r="E377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378" t="s">
+        <v>411</v>
+      </c>
+      <c r="D378" t="s">
+        <v>361</v>
+      </c>
+      <c r="E378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>378</v>
+      </c>
+      <c r="C379" t="s">
+        <v>412</v>
+      </c>
+      <c r="D379" t="s">
+        <v>361</v>
+      </c>
+      <c r="E379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>378</v>
+      </c>
+      <c r="C380" t="s">
+        <v>413</v>
+      </c>
+      <c r="D380" t="s">
+        <v>361</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>378</v>
+      </c>
+      <c r="C381" t="s">
+        <v>414</v>
+      </c>
+      <c r="D381" t="s">
+        <v>361</v>
+      </c>
+      <c r="E381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>378</v>
+      </c>
+      <c r="C382" t="s">
+        <v>415</v>
+      </c>
+      <c r="D382" t="s">
+        <v>361</v>
+      </c>
+      <c r="E382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>378</v>
+      </c>
+      <c r="C383" t="s">
+        <v>416</v>
+      </c>
+      <c r="D383" t="s">
+        <v>361</v>
+      </c>
+      <c r="E383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>378</v>
+      </c>
+      <c r="C384" t="s">
+        <v>417</v>
+      </c>
+      <c r="D384" t="s">
+        <v>361</v>
+      </c>
+      <c r="E384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>378</v>
+      </c>
+      <c r="C385" t="s">
+        <v>418</v>
+      </c>
+      <c r="D385" t="s">
+        <v>361</v>
+      </c>
+      <c r="E385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>378</v>
+      </c>
+      <c r="C386" t="s">
+        <v>419</v>
+      </c>
+      <c r="D386" t="s">
+        <v>361</v>
+      </c>
+      <c r="E386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>378</v>
+      </c>
+      <c r="C387" t="s">
+        <v>420</v>
+      </c>
+      <c r="D387" t="s">
+        <v>361</v>
+      </c>
+      <c r="E387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>378</v>
+      </c>
+      <c r="C388" t="s">
+        <v>421</v>
+      </c>
+      <c r="D388" t="s">
+        <v>361</v>
+      </c>
+      <c r="E388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>378</v>
+      </c>
+      <c r="C389" t="s">
+        <v>422</v>
+      </c>
+      <c r="D389" t="s">
+        <v>361</v>
+      </c>
+      <c r="E389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>378</v>
+      </c>
+      <c r="C390" t="s">
+        <v>423</v>
+      </c>
+      <c r="D390" t="s">
+        <v>361</v>
+      </c>
+      <c r="E390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>378</v>
+      </c>
+      <c r="C391" t="s">
+        <v>424</v>
+      </c>
+      <c r="D391" t="s">
+        <v>361</v>
+      </c>
+      <c r="E391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>380</v>
+      </c>
+      <c r="C392" t="s">
+        <v>425</v>
+      </c>
+      <c r="D392" t="s">
+        <v>361</v>
+      </c>
+      <c r="E392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>380</v>
+      </c>
+      <c r="C393" t="s">
+        <v>426</v>
+      </c>
+      <c r="D393" t="s">
+        <v>361</v>
+      </c>
+      <c r="E393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>382</v>
+      </c>
+      <c r="C394" t="s">
+        <v>427</v>
+      </c>
+      <c r="D394" t="s">
+        <v>361</v>
+      </c>
+      <c r="E394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>382</v>
+      </c>
+      <c r="C395" t="s">
+        <v>428</v>
+      </c>
+      <c r="D395" t="s">
+        <v>361</v>
+      </c>
+      <c r="E395" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>382</v>
+      </c>
+      <c r="C396" t="s">
+        <v>429</v>
+      </c>
+      <c r="D396" t="s">
+        <v>361</v>
+      </c>
+      <c r="E396" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>382</v>
+      </c>
+      <c r="C397" t="s">
+        <v>430</v>
+      </c>
+      <c r="D397" t="s">
+        <v>361</v>
+      </c>
+      <c r="E397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>382</v>
+      </c>
+      <c r="C398" t="s">
+        <v>431</v>
+      </c>
+      <c r="D398" t="s">
+        <v>361</v>
+      </c>
+      <c r="E398" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>382</v>
+      </c>
+      <c r="C399" t="s">
+        <v>432</v>
+      </c>
+      <c r="D399" t="s">
+        <v>361</v>
+      </c>
+      <c r="E399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>382</v>
+      </c>
+      <c r="C400" t="s">
+        <v>433</v>
+      </c>
+      <c r="D400" t="s">
+        <v>361</v>
+      </c>
+      <c r="E400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>382</v>
+      </c>
+      <c r="C401" t="s">
+        <v>434</v>
+      </c>
+      <c r="D401" t="s">
+        <v>361</v>
+      </c>
+      <c r="E401" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>382</v>
+      </c>
+      <c r="C402" t="s">
+        <v>435</v>
+      </c>
+      <c r="D402" t="s">
+        <v>361</v>
+      </c>
+      <c r="E402" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>382</v>
+      </c>
+      <c r="C403" t="s">
+        <v>436</v>
+      </c>
+      <c r="D403" t="s">
+        <v>361</v>
+      </c>
+      <c r="E403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>382</v>
+      </c>
+      <c r="C404" t="s">
+        <v>437</v>
+      </c>
+      <c r="D404" t="s">
+        <v>361</v>
+      </c>
+      <c r="E404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>382</v>
+      </c>
+      <c r="C405" t="s">
+        <v>438</v>
+      </c>
+      <c r="D405" t="s">
+        <v>361</v>
+      </c>
+      <c r="E405" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>382</v>
+      </c>
+      <c r="C406" t="s">
+        <v>439</v>
+      </c>
+      <c r="D406" t="s">
+        <v>361</v>
+      </c>
+      <c r="E406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>382</v>
+      </c>
+      <c r="C407" t="s">
+        <v>440</v>
+      </c>
+      <c r="D407" t="s">
+        <v>361</v>
+      </c>
+      <c r="E407" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>382</v>
+      </c>
+      <c r="C408" t="s">
+        <v>441</v>
+      </c>
+      <c r="D408" t="s">
+        <v>361</v>
+      </c>
+      <c r="E408" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>382</v>
+      </c>
+      <c r="C409" t="s">
+        <v>442</v>
+      </c>
+      <c r="D409" t="s">
+        <v>361</v>
+      </c>
+      <c r="E409" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>382</v>
+      </c>
+      <c r="C410" t="s">
+        <v>443</v>
+      </c>
+      <c r="D410" t="s">
+        <v>361</v>
+      </c>
+      <c r="E410" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>382</v>
+      </c>
+      <c r="C411" t="s">
+        <v>444</v>
+      </c>
+      <c r="D411" t="s">
+        <v>361</v>
+      </c>
+      <c r="E411" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>382</v>
+      </c>
+      <c r="C412" t="s">
+        <v>445</v>
+      </c>
+      <c r="D412" t="s">
+        <v>361</v>
+      </c>
+      <c r="E412" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>382</v>
+      </c>
+      <c r="C413" t="s">
+        <v>446</v>
+      </c>
+      <c r="D413" t="s">
+        <v>361</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>382</v>
+      </c>
+      <c r="C414" t="s">
+        <v>447</v>
+      </c>
+      <c r="D414" t="s">
+        <v>361</v>
+      </c>
+      <c r="E414" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>382</v>
+      </c>
+      <c r="C415" t="s">
+        <v>448</v>
+      </c>
+      <c r="D415" t="s">
+        <v>361</v>
+      </c>
+      <c r="E415" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>382</v>
+      </c>
+      <c r="C416" t="s">
+        <v>449</v>
+      </c>
+      <c r="D416" t="s">
+        <v>361</v>
+      </c>
+      <c r="E416" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>382</v>
+      </c>
+      <c r="C417" t="s">
+        <v>450</v>
+      </c>
+      <c r="D417" t="s">
+        <v>361</v>
+      </c>
+      <c r="E417" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>382</v>
+      </c>
+      <c r="C418" t="s">
+        <v>451</v>
+      </c>
+      <c r="D418" t="s">
+        <v>361</v>
+      </c>
+      <c r="E418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>382</v>
+      </c>
+      <c r="C419" t="s">
+        <v>452</v>
+      </c>
+      <c r="D419" t="s">
+        <v>361</v>
+      </c>
+      <c r="E419" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>382</v>
+      </c>
+      <c r="C420" t="s">
+        <v>453</v>
+      </c>
+      <c r="D420" t="s">
+        <v>361</v>
+      </c>
+      <c r="E420" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>382</v>
+      </c>
+      <c r="C421" t="s">
+        <v>454</v>
+      </c>
+      <c r="D421" t="s">
+        <v>361</v>
+      </c>
+      <c r="E421" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>382</v>
+      </c>
+      <c r="C422" t="s">
+        <v>455</v>
+      </c>
+      <c r="D422" t="s">
+        <v>361</v>
+      </c>
+      <c r="E422" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>382</v>
+      </c>
+      <c r="C423" t="s">
+        <v>456</v>
+      </c>
+      <c r="D423" t="s">
+        <v>361</v>
+      </c>
+      <c r="E423" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>382</v>
+      </c>
+      <c r="C424" t="s">
+        <v>457</v>
+      </c>
+      <c r="D424" t="s">
+        <v>361</v>
+      </c>
+      <c r="E424" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>382</v>
+      </c>
+      <c r="C425" t="s">
+        <v>458</v>
+      </c>
+      <c r="D425" t="s">
+        <v>361</v>
+      </c>
+      <c r="E425" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>382</v>
+      </c>
+      <c r="C426" t="s">
+        <v>459</v>
+      </c>
+      <c r="D426" t="s">
+        <v>361</v>
+      </c>
+      <c r="E426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>382</v>
+      </c>
+      <c r="C427" t="s">
+        <v>460</v>
+      </c>
+      <c r="D427" t="s">
+        <v>361</v>
+      </c>
+      <c r="E427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>382</v>
+      </c>
+      <c r="C428" t="s">
+        <v>461</v>
+      </c>
+      <c r="D428" t="s">
+        <v>361</v>
+      </c>
+      <c r="E428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>382</v>
+      </c>
+      <c r="C429" t="s">
+        <v>462</v>
+      </c>
+      <c r="D429" t="s">
+        <v>361</v>
+      </c>
+      <c r="E429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>382</v>
+      </c>
+      <c r="C430" t="s">
+        <v>463</v>
+      </c>
+      <c r="D430" t="s">
+        <v>361</v>
+      </c>
+      <c r="E430" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>382</v>
+      </c>
+      <c r="C431" t="s">
+        <v>464</v>
+      </c>
+      <c r="D431" t="s">
+        <v>361</v>
+      </c>
+      <c r="E431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>382</v>
+      </c>
+      <c r="C432" t="s">
+        <v>465</v>
+      </c>
+      <c r="D432" t="s">
+        <v>361</v>
+      </c>
+      <c r="E432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>382</v>
+      </c>
+      <c r="C433" t="s">
+        <v>466</v>
+      </c>
+      <c r="D433" t="s">
+        <v>361</v>
+      </c>
+      <c r="E433" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>382</v>
+      </c>
+      <c r="C434" t="s">
+        <v>467</v>
+      </c>
+      <c r="D434" t="s">
+        <v>361</v>
+      </c>
+      <c r="E434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>382</v>
+      </c>
+      <c r="C435" t="s">
+        <v>468</v>
+      </c>
+      <c r="D435" t="s">
+        <v>361</v>
+      </c>
+      <c r="E435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>382</v>
+      </c>
+      <c r="C436" t="s">
+        <v>469</v>
+      </c>
+      <c r="D436" t="s">
+        <v>361</v>
+      </c>
+      <c r="E436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>382</v>
+      </c>
+      <c r="C437" t="s">
+        <v>470</v>
+      </c>
+      <c r="D437" t="s">
+        <v>361</v>
+      </c>
+      <c r="E437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>382</v>
+      </c>
+      <c r="C438" t="s">
+        <v>471</v>
+      </c>
+      <c r="D438" t="s">
+        <v>361</v>
+      </c>
+      <c r="E438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>382</v>
+      </c>
+      <c r="C439" t="s">
+        <v>472</v>
+      </c>
+      <c r="D439" t="s">
+        <v>361</v>
+      </c>
+      <c r="E439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>382</v>
+      </c>
+      <c r="C440" t="s">
+        <v>473</v>
+      </c>
+      <c r="D440" t="s">
+        <v>361</v>
+      </c>
+      <c r="E440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>382</v>
+      </c>
+      <c r="C441" t="s">
+        <v>474</v>
+      </c>
+      <c r="D441" t="s">
+        <v>361</v>
+      </c>
+      <c r="E441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>382</v>
+      </c>
+      <c r="C442" t="s">
+        <v>475</v>
+      </c>
+      <c r="D442" t="s">
+        <v>361</v>
+      </c>
+      <c r="E442" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
